--- a/w9/newthon-raphson.xlsx
+++ b/w9/newthon-raphson.xlsx
@@ -1779,7 +1779,7 @@
   <dimension ref="A3:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
